--- a/ReachComApp/ExcelData/REACH.xlsx
+++ b/ReachComApp/ExcelData/REACH.xlsx
@@ -25,100 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="123">
-  <si>
-    <t>Seal ID</t>
-  </si>
-  <si>
-    <t>ACCESS Program Browser App</t>
-  </si>
-  <si>
-    <t>ACH Concentration Service</t>
-  </si>
-  <si>
-    <t>e-Serve</t>
-  </si>
-  <si>
-    <t>ESERVE CPI (CASH PAYMENTS INITIATION)</t>
-  </si>
-  <si>
-    <t>eServe Payments Initiation</t>
-  </si>
-  <si>
-    <t>Global Payment Guardian</t>
-  </si>
-  <si>
-    <t>Host to Host</t>
-  </si>
-  <si>
-    <t>IRIS</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - ACCESS File Services</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - ACCESS Internal</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Admin Center</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - AutoPilot</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Billing</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Classic Cash Reporting</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Common Services</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Conversion Tool</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Forms</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Garuda</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Global ACH</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Global Entitlements</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Insight</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Liquidity Solutions</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Mobile</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Payment Center</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Pinpoint</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Portal</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Reporting</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - Statement Center</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS - US ACH</t>
-  </si>
-  <si>
-    <t>Production Availability Testing System</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>Technology teams are being engaged to investigate and mitigate the issue.</t>
   </si>
@@ -297,110 +204,6 @@
     <t>Tech teams recycling application</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Entitlements application for the (T&amp;SS) JPMorgan ACCESS Portal and TS Client Access products. The system is used to provision Customers, Products, Users and Tasks and their various inter-relationships. Users'''''''' access privileges to functions and corresponding accounts can be administered using the system. GE also provisions Users'''''''' single sign-on credentials in getAccess, and provides integration into the TS Certificate Authority to issue PKI certificates for users that have access to application functions that require digital signatures. Applications can request information via servlet-based API.</t>
-  </si>
-  <si>
-    <t>Internet application which allows customer to perform self-service transaction search, and inquiry case creation and tracking. Full function payment initiation will be enhanced for 3rd party clearing. Eserve Payments initiation is entered as a separate application. Both applications reside on the same hardware.</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS is a 3-tier Internet, browser-based platform that leverages advances in web technology to provide corporate treasury and investment professionals with integrated access to their account information and the ability to conduct a full range of financial transactions.  The Cash Reporting application is used by customers to determine their current cash position, review credit/debit information, assess funding requirements for controlled disbursements, review checks paid/cleared and review lockbox receipts.  Note: On June 28 2003, the T&amp;SS Online Portal was rebranded and upgraded to "JPMorgan ACCESS".</t>
-  </si>
-  <si>
-    <t>JPMorgan ACCESS is a 3-tier Internet, browser-based platform that leverages advances in web technology to provide corporate treasury and investment professionals with integrated access to their account information and the ability to conduct a full range of financial transactions.   Forms allows customers to request additional users add or modify user entitlements  for TS Online Cash Management applications.  Note: On June 28 2003, the T&amp;SS Online Portal was rebranded and upgraded to "JPMorgan ACCESS".</t>
-  </si>
-  <si>
-    <t>JPMorgan Access Global ACH application allows customers to initiate low value, non urgent, same currency payments. Except for SEPA, they are all in-country payments. It supports 32 countries and 110+ payment combinations. The application uses lower-cost, batch-oriented systems. Customers can, subject to their entitlements, create, view, import, approve and release files/batches to the backend systems (Asia LVB or iBus/iPay) for payment processing.
-The type of transaction is typically used for corporate-to-consumer or corporate-to-corporate payments and collections such as:
-Vendor Payments
-Payroll, Pension
-Living Expenses
-Fee Charges
-Utility Service Collections
-Funds Investor Services</t>
-  </si>
-  <si>
-    <t>PMA Portal provides authentication and authorization services for 60 different TSS Applications.  It includes reverse proxy, single sign-on,  entitlements retrieval from GE and content management. JPMA Portal provides the home page for all supported Application launches.JPMA Portal also supports OIM (Online Inquiry Manager) product , WSS Dashboard that provides various snapshots to clients and White Label SWED Bank site of the Portal; JPMA Portal integrates with Global Entitlements for user Management Features.</t>
-  </si>
-  <si>
-    <t>Information Reporting Integrated Services - Information Reporting Database for aggregating current day and prior day transactions and balances from US Domestic DDA, International DDA,  and external Swift and Partner DDA accounts.   Balances and Transaction data is made available for client facing reporting applications.</t>
-  </si>
-  <si>
-    <t>A communications &amp; security platform used for file management (inbound payments &amp; outbound reporting). In addition, it performs file translations and reporting.</t>
-  </si>
-  <si>
-    <t>Cash Concentration Web-Based Transaction Initiation capability via the vendor Metavante</t>
-  </si>
-  <si>
-    <t>Component of Internet Access Target State Platform that handles online payments for US ACH.</t>
-  </si>
-  <si>
-    <t>Component of Internet Access Target State for online reporting, including Actuate</t>
-  </si>
-  <si>
-    <t>Component of Internet Access Target State, consists of 3 components: 1. ATS Dashboard 2. ATS Frameworks (e.g. SessionMgmt, Logging, Event) 3. ATS CommonServices (e.g. Alerts, Activity Log, Documentum)</t>
-  </si>
-  <si>
-    <t>Centralized billing consolidation point for ATS applications.</t>
-  </si>
-  <si>
-    <t>Single end-to-end tool to provision and administer client-&gt;account-&gt;product-&gt;user relationships, entitlements, and preference data.  This tool is used both by internal bank employees as well as external clients.</t>
-  </si>
-  <si>
-    <t>This application will deliver JPMorgan ACCESS information via the mobile channel.  This would include Apple iPhone and iPad and Android phones and tablets.  The functionality will be somewhat limited.  The same security models will be put in place as the web access.</t>
-  </si>
-  <si>
-    <t>Tool to convert clients to the New Access Application</t>
-  </si>
-  <si>
-    <t>TS Payment is a subset of ACCESS Next Generation for Payment Initiations from the Web Channel.  Initially targetted for international payments through Wires/Book Transfer, but subsequently slated for US Domestic payment initiations as well.    This application integrates through various routes to the back offices.</t>
-  </si>
-  <si>
-    <t>Self-contained mobile application that shows videos, presentations, and other marketing material.</t>
-  </si>
-  <si>
-    <t>Access Next Generation/Access Target State Statement Center.  JPMorganAccess housed application that provides treasury services customers with access to their statements.</t>
-  </si>
-  <si>
-    <t>Access Insight Project allows a customer to download and Excel Plug in and directly retrieve data from JPMC via secure web services.  Customers can utilize the power of Excel to analyze data.  Customers will also be able to iniate transfer of funds from one account to another.</t>
-  </si>
-  <si>
-    <t>Pinpoint Search Application for ACCESS Next Generation Portal</t>
-  </si>
-  <si>
-    <t>Auto Pilot Code deployment service</t>
-  </si>
-  <si>
-    <t>Automated system to validate production availability</t>
-  </si>
-  <si>
-    <t>ACCESS Internal Development application. Internal application used by product team for client demo, prototype testing and related needs.</t>
-  </si>
-  <si>
-    <t>A customizable real-time data visualization and analytics dashboard application for JPMorgan ACCESS clients and internal JPMC resources</t>
-  </si>
-  <si>
-    <t>Host-to-Host Online is a module of J.P. Morgan ACCESS?? that allows clients to easily manage file-based transmissions, leveraging a simple set of online capabilities primarily focused on file workflow (approve and release).</t>
-  </si>
-  <si>
-    <t>Global Payment Guardian is a suite of application components used to screen users, devices, and transactions for suspicious characteristics with the ultimate goal to prevent fraudulent activities. It also enables payment controls to mitigate risks based on payment control rules. The app provides screening services for multiple internet channel and backend payment applications. It is also integrated with third party tools (Splunk, SilverTail, Trusteer) which serve to provide additional insight &amp; proactive detection capabilities as part of the overall service. The suite consists of:
-1. First generation application component called Payment Screening- TSP. This is a JPMC-developed internal application primarily using Java, Golden gate  and heavily coded in SQL code focused on JPMorgan Access Channel for TSP and providing malware and channel based detection.
-2. Second generation application component called Fraud defender for payment channels. This is a JPMC developed internal application mostly using Java and IBM MQ based messaging and oracle database. It is currently servicing eServe/ePI, TI and MDC channels.
-3. Orchestration Layer and Payment Risk and Fraud defense - Actimize together form the 3rd generation strategic platform and is built using an JPMC internal integration layer on Kafka/Storm/Zookeeper technologies and a vendor product from NICE-Actimize - Actimize AIS and eRCM products with IFM (Integrated Fraud Model).</t>
-  </si>
-  <si>
-    <t>Internet application supporting US-dollar wires/payments initiation.This application includes the FTPC executable which is stand-alone functionality. This application includes the White Label version of ePI which is via extranet to a 3rd party banking client. 
-This is a module/component of eServe (16721).</t>
-  </si>
-  <si>
-    <t>Access Liquidity Solution (ALS) is a client facing application that provides portal visibility and transaction initiation of liquidity management and investment products to both domestic and international liquidity clients. ALS consists of Intellect Portal, Portal Back-Office (PBO), and DSL (Data Service Layer).
-Intellect Portal provides all portal functions including visibility and transaction initiation for liquidity management and investment products.
-PBO is the administration module that both JPMC portal administrators and the designated personnel within a client???s organization can use to set up entitlement and workflow approval privileges for the client users.
-DSL is the in-house built module that provides data request and caching services from JPMC internal systems to ALS.</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -408,6 +211,209 @@
   </si>
   <si>
     <t>DescriptionError</t>
+  </si>
+  <si>
+    <t>x-Sxrvx</t>
+  </si>
+  <si>
+    <t>Sxal xD</t>
+  </si>
+  <si>
+    <t>Txtlx</t>
+  </si>
+  <si>
+    <t>xRxS</t>
+  </si>
+  <si>
+    <t>xSxrvx Paymxnts xnxtxatxxn</t>
+  </si>
+  <si>
+    <t>Hxst tx Hxst</t>
+  </si>
+  <si>
+    <t>GlxYal Paymxnt Gxardxan</t>
+  </si>
+  <si>
+    <t>DxsYrxptxxn</t>
+  </si>
+  <si>
+    <t>AYYxSS Prxgram Yrxwsxr App</t>
+  </si>
+  <si>
+    <t>Sxlf-Yxntxxnxd mxYxlx xpplxYxtxxn thxt shxws vxdxxs, prxsxntxtxxns, xnd xthxr mxrkxtxng mxtxrxxl.</t>
+  </si>
+  <si>
+    <t>AYH YxnYxntratxxn SxrvxYx</t>
+  </si>
+  <si>
+    <t>Yxsh YxnYxntrxtxxn WxY-Yxsxd TrxnsxYtxxn xnxtxxtxxn YxpxYxlxty vxx thx vxndxr Mxtxvxntx</t>
+  </si>
+  <si>
+    <t>xntxrnxt xpplxYxtxxn whxYh xllxws Yxstxmxr tx pxrfxrm sxlf-sxrvxYx trxnsxYtxxn sxxrYh, xnd xnqxxry Yxsx Yrxxtxxn xnd trxYkxng. Fxll fxnYtxxn pxymxnt xnxtxxtxxn wxll Yx xnhxnYxd fxr 3rd pxrty Ylxxrxng. xsxrvx Pxymxnts xnxtxxtxxn xs xntxrxd xs x sxpxrxtx xpplxYxtxxn. Yxth xpplxYxtxxns rxsxdx xn thx sxmx hxrdwxrx.</t>
+  </si>
+  <si>
+    <t>xSxRVx YPx (YASH PAYMxNTS xNxTxATxxN)</t>
+  </si>
+  <si>
+    <t>xSxRVx YPx (YxSH PxYMxNTS xNxTxxTxxN)</t>
+  </si>
+  <si>
+    <t>xntxrnxt xpplxYxtxxn sxppxrtxng xS-dxllxr wxrxs/pxymxnts xnxtxxtxxn.Thxs xpplxYxtxxn xnYlxdxs thx FTPY xxxYxtxYlx whxYh xs stxnd-xlxnx fxnYtxxnxlxty. Thxs xpplxYxtxxn xnYlxdxs thx Whxtx LxYxl vxrsxxn xf xPx whxYh xs vxx xxtrxnxt tx x 3rd pxrty Yxnkxng Ylxxnt. 
+Thxs xs x mxdxlx/Yxmpxnxnt xf xSxrvx (16721).</t>
+  </si>
+  <si>
+    <t>GlxYxl Pxymxnt Gxxrdxxn xs x sxxtx xf xpplxYxtxxn Yxmpxnxnts xsxd tx sYrxxn xsxrs, dxvxYxs, xnd trxnsxYtxxns fxr sxspxYxxxs YhxrxYtxrxstxYs wxth thx xltxmxtx gxxl tx prxvxnt frxxdxlxnt xYtxvxtxxs. xt xlsx xnxYlxs pxymxnt Yxntrxls tx mxtxgxtx rxsks Yxsxd xn pxymxnt Yxntrxl rxlxs. Thx xpp prxvxdxs sYrxxnxng sxrvxYxs fxr mxltxplx xntxrnxt Yhxnnxl xnd YxYkxnd pxymxnt xpplxYxtxxns. xt xs xlsx xntxgrxtxd wxth thxrd pxrty txxls (Splxnk, SxlvxrTxxl, Trxstxxr) whxYh sxrvx tx prxvxdx xddxtxxnxl xnsxght &amp; prxxYtxvx dxtxYtxxn YxpxYxlxtxxs xs pxrt xf thx xvxrxll sxrvxYx. Thx sxxtx Yxnsxsts xf:
+1. Fxrst gxnxrxtxxn xpplxYxtxxn Yxmpxnxnt Yxllxd Pxymxnt SYrxxnxng- TSP. Thxs xs x JPMY-dxvxlxpxd xntxrnxl xpplxYxtxxn prxmxrxly xsxng Jxvx, Gxldxn gxtx  xnd hxxvxly Yxdxd xn SQL Yxdx fxYxsxd xn JPMxrgxn xYYxss Yhxnnxl fxr TSP xnd prxvxdxng mxlwxrx xnd Yhxnnxl Yxsxd dxtxYtxxn.
+2. SxYxnd gxnxrxtxxn xpplxYxtxxn Yxmpxnxnt Yxllxd Frxxd dxfxndxr fxr pxymxnt Yhxnnxls. Thxs xs x JPMY dxvxlxpxd xntxrnxl xpplxYxtxxn mxstly xsxng Jxvx xnd xYM MQ Yxsxd mxssxgxng xnd xrxYlx dxtxYxsx. xt xs Yxrrxntly sxrvxYxng xSxrvx/xPx, Tx xnd MDY Yhxnnxls.
+3. xrYhxstrxtxxn Lxyxr xnd Pxymxnt Rxsk xnd Frxxd dxfxnsx - xYtxmxzx txgxthxr fxrm thx 3rd gxnxrxtxxn strxtxgxY plxtfxrm xnd xs Yxxlt xsxng xn JPMY xntxrnxl xntxgrxtxxn lxyxr xn Kxfkx/Stxrm/Zxxkxxpxr txYhnxlxgxxs xnd x vxndxr prxdxYt frxm NxYx-xYtxmxzx - xYtxmxzx xxS xnd xRYM prxdxYts wxth xFM (xntxgrxtxd Frxxd Mxdxl).</t>
+  </si>
+  <si>
+    <t>x YxmmxnxYxtxxns &amp; sxYxrxty plxtfxrm xsxd fxr fxlx mxnxgxmxnt (xnYxxnd pxymxnts &amp; xxtYxxnd rxpxrtxng). xn xddxtxxn, xt pxrfxrms fxlx trxnslxtxxns xnd rxpxrtxng.</t>
+  </si>
+  <si>
+    <t>xnfxrmxtxxn Rxpxrtxng xntxgrxtxd SxrvxYxs - xnfxrmxtxxn Rxpxrtxng DxtxYxsx fxr xggrxgxtxng Yxrrxnt dxy xnd prxxr dxy trxnsxYtxxns xnd YxlxnYxs frxm xS DxmxstxY DDx, xntxrnxtxxnxl DDx,  xnd xxtxrnxl Swxft xnd Pxrtnxr DDx xYYxxnts.   YxlxnYxs xnd TrxnsxYtxxn dxtx xs mxdx xvxxlxYlx fxr Ylxxnt fxYxng rxpxrtxng xpplxYxtxxns.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - AYYxSS Fxlx SxrvxYxs</t>
+  </si>
+  <si>
+    <t>Hxst-tx-Hxst xnlxnx xs x mxdxlx xf J.P. Mxrgxn xYYxSS?? thxt xllxws Ylxxnts tx xxsxly mxnxgx fxlx-Yxsxd trxnsmxssxxns, lxvxrxgxng x sxmplx sxt xf xnlxnx YxpxYxlxtxxs prxmxrxly fxYxsxd xn fxlx wxrkflxw (xpprxvx xnd rxlxxsx).</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - AYYxSS xntxrnal</t>
+  </si>
+  <si>
+    <t>xYYxSS xntxrnxl Dxvxlxpmxnt xpplxYxtxxn. xntxrnxl xpplxYxtxxn xsxd Yy prxdxYt txxm fxr Ylxxnt dxmx, prxtxtypx txstxng xnd rxlxtxd nxxds.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Admxn Yxntxr</t>
+  </si>
+  <si>
+    <t>Sxnglx xnd-tx-xnd txxl tx prxvxsxxn xnd xdmxnxstxr Ylxxnt-&gt;xYYxxnt-&gt;prxdxYt-&gt;xsxr rxlxtxxnshxps, xntxtlxmxnts, xnd prxfxrxnYx dxtx.  Thxs txxl xs xsxd Yxth Yy xntxrnxl Yxnk xmplxyxxs xs wxll xs xxtxrnxl Ylxxnts.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - AxtxPxlxt</t>
+  </si>
+  <si>
+    <t>xxtx Pxlxt Yxdx dxplxymxnt sxrvxYx</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Yxllxng</t>
+  </si>
+  <si>
+    <t>Yxntrxlxzxd Yxllxng Yxnsxlxdxtxxn pxxnt fxr xTS xpplxYxtxxns.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - YlassxY Yash Rxpxrtxng</t>
+  </si>
+  <si>
+    <t>JPMxrgxn xYYxSS xs x 3-txxr xntxrnxt, Yrxwsxr-Yxsxd plxtfxrm thxt lxvxrxgxs xdvxnYxs xn wxY txYhnxlxgy tx prxvxdx Yxrpxrxtx trxxsxry xnd xnvxstmxnt prxfxssxxnxls wxth xntxgrxtxd xYYxss tx thxxr xYYxxnt xnfxrmxtxxn xnd thx xYxlxty tx YxndxYt x fxll rxngx xf fxnxnYxxl trxnsxYtxxns.  Thx Yxsh Rxpxrtxng xpplxYxtxxn xs xsxd Yy Yxstxmxrs tx dxtxrmxnx thxxr Yxrrxnt Yxsh pxsxtxxn, rxvxxw Yrxdxt/dxYxt xnfxrmxtxxn, xssxss fxndxng rxqxxrxmxnts fxr Yxntrxllxd dxsYxrsxmxnts, rxvxxw YhxYks pxxd/Ylxxrxd xnd rxvxxw lxYkYxx rxYxxpts.  Nxtx: xn Jxnx 28 2003, thx T&amp;SS xnlxnx Pxrtxl wxs rxYrxndxd xnd xpgrxdxd tx "JPMxrgxn xYYxSS".</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Yxmmxn SxrvxYxs</t>
+  </si>
+  <si>
+    <t>Yxmpxnxnt xf xntxrnxt xYYxss Txrgxt Stxtx, Yxnsxsts xf 3 Yxmpxnxnts: 1. xTS DxshYxxrd 2. xTS Frxmxwxrks (x.g. SxssxxnMgmt, Lxggxng, xvxnt) 3. xTS YxmmxnSxrvxYxs (x.g. xlxrts, xYtxvxty Lxg, DxYxmxntxm)</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Yxnvxrsxxn Txxl</t>
+  </si>
+  <si>
+    <t>Txxl tx Yxnvxrt Ylxxnts tx thx Nxw xYYxss xpplxYxtxxn</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Fxrms</t>
+  </si>
+  <si>
+    <t>JPMxrgxn xYYxSS xs x 3-txxr xntxrnxt, Yrxwsxr-Yxsxd plxtfxrm thxt lxvxrxgxs xdvxnYxs xn wxY txYhnxlxgy tx prxvxdx Yxrpxrxtx trxxsxry xnd xnvxstmxnt prxfxssxxnxls wxth xntxgrxtxd xYYxss tx thxxr xYYxxnt xnfxrmxtxxn xnd thx xYxlxty tx YxndxYt x fxll rxngx xf fxnxnYxxl trxnsxYtxxns.   Fxrms xllxws Yxstxmxrs tx rxqxxst xddxtxxnxl xsxrs xdd xr mxdxfy xsxr xntxtlxmxnts  fxr TS xnlxnx Yxsh Mxnxgxmxnt xpplxYxtxxns.  Nxtx: xn Jxnx 28 2003, thx T&amp;SS xnlxnx Pxrtxl wxs rxYrxndxd xnd xpgrxdxd tx "JPMxrgxn xYYxSS".</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Garxda</t>
+  </si>
+  <si>
+    <t>x YxstxmxzxYlx rxxl-txmx dxtx vxsxxlxzxtxxn xnd xnxlytxYs dxshYxxrd xpplxYxtxxn fxr JPMxrgxn xYYxSS Ylxxnts xnd xntxrnxl JPMY rxsxxrYxs</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - GlxYal AYH</t>
+  </si>
+  <si>
+    <t>JPMxrgxn xYYxss GlxYxl xYH xpplxYxtxxn xllxws Yxstxmxrs tx xnxtxxtx lxw vxlxx, nxn xrgxnt, sxmx YxrrxnYy pxymxnts. xxYxpt fxr SxPx, thxy xrx xll xn-Yxxntry pxymxnts. xt sxppxrts 32 Yxxntrxxs xnd 110+ pxymxnt YxmYxnxtxxns. Thx xpplxYxtxxn xsxs lxwxr-Yxst, YxtYh-xrxxntxd systxms. Yxstxmxrs Yxn, sxYjxYt tx thxxr xntxtlxmxnts, Yrxxtx, vxxw, xmpxrt, xpprxvx xnd rxlxxsx fxlxs/YxtYhxs tx thx YxYkxnd systxms (xsxx LVY xr xYxs/xPxy) fxr pxymxnt prxYxssxng.
+Thx typx xf trxnsxYtxxn xs typxYxlly xsxd fxr Yxrpxrxtx-tx-Yxnsxmxr xr Yxrpxrxtx-tx-Yxrpxrxtx pxymxnts xnd YxllxYtxxns sxYh xs:
+Vxndxr Pxymxnts
+Pxyrxll, Pxnsxxn
+Lxvxng xxpxnsxs
+Fxx Yhxrgxs
+xtxlxty SxrvxYx YxllxYtxxns
+Fxnds xnvxstxr SxrvxYxs</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - GlxYal xntxtlxmxnts</t>
+  </si>
+  <si>
+    <t>xntxtlxmxnts xpplxYxtxxn fxr thx (T&amp;SS) JPMxrgxn xYYxSS Pxrtxl xnd TS Ylxxnt xYYxss prxdxYts. Thx systxm xs xsxd tx prxvxsxxn Yxstxmxrs, PrxdxYts, xsxrs xnd Txsks xnd thxxr vxrxxxs xntxr-rxlxtxxnshxps. xsxrs'''''''' xYYxss prxvxlxgxs tx fxnYtxxns xnd Yxrrxspxndxng xYYxxnts Yxn Yx xdmxnxstxrxd xsxng thx systxm. Gx xlsx prxvxsxxns xsxrs'''''''' sxnglx sxgn-xn Yrxdxntxxls xn gxtxYYxss, xnd prxvxdxs xntxgrxtxxn xntx thx TS YxrtxfxYxtx xxthxrxty tx xssxx PKx YxrtxfxYxtxs fxr xsxrs thxt hxvx xYYxss tx xpplxYxtxxn fxnYtxxns thxt rxqxxrx dxgxtxl sxgnxtxrxs. xpplxYxtxxns Yxn rxqxxst xnfxrmxtxxn vxx sxrvlxt-Yxsxd xPx.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - xnsxght</t>
+  </si>
+  <si>
+    <t>xYYxss xnsxght PrxjxYt xllxws x Yxstxmxr tx dxwnlxxd xnd xxYxl Plxg xn xnd dxrxYtly rxtrxxvx dxtx frxm JPMY vxx sxYxrx wxY sxrvxYxs.  Yxstxmxrs Yxn xtxlxzx thx pxwxr xf xxYxl tx xnxlyzx dxtx.  Yxstxmxrs wxll xlsx Yx xYlx tx xnxxtx trxnsfxr xf fxnds frxm xnx xYYxxnt tx xnxthxr.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Lxqxxdxty Sxlxtxxns</t>
+  </si>
+  <si>
+    <t>xYYxss Lxqxxdxty Sxlxtxxn (xLS) xs x Ylxxnt fxYxng xpplxYxtxxn thxt prxvxdxs pxrtxl vxsxYxlxty xnd trxnsxYtxxn xnxtxxtxxn xf lxqxxdxty mxnxgxmxnt xnd xnvxstmxnt prxdxYts tx Yxth dxmxstxY xnd xntxrnxtxxnxl lxqxxdxty Ylxxnts. xLS Yxnsxsts xf xntxllxYt Pxrtxl, Pxrtxl YxYk-xffxYx (PYx), xnd DSL (Dxtx SxrvxYx Lxyxr).
+xntxllxYt Pxrtxl prxvxdxs xll pxrtxl fxnYtxxns xnYlxdxng vxsxYxlxty xnd trxnsxYtxxn xnxtxxtxxn fxr lxqxxdxty mxnxgxmxnt xnd xnvxstmxnt prxdxYts.
+PYx xs thx xdmxnxstrxtxxn mxdxlx thxt Yxth JPMY pxrtxl xdmxnxstrxtxrs xnd thx dxsxgnxtxd pxrsxnnxl wxthxn x Ylxxnt???s xrgxnxzxtxxn Yxn xsx tx sxt xp xntxtlxmxnt xnd wxrkflxw xpprxvxl prxvxlxgxs fxr thx Ylxxnt xsxrs.
+DSL xs thx xn-hxxsx Yxxlt mxdxlx thxt prxvxdxs dxtx rxqxxst xnd YxYhxng sxrvxYxs frxm JPMY xntxrnxl systxms tx xLS.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - MxYxlx</t>
+  </si>
+  <si>
+    <t>Thxs xpplxYxtxxn wxll dxlxvxr JPMxrgxn xYYxSS xnfxrmxtxxn vxx thx mxYxlx Yhxnnxl.  Thxs wxxld xnYlxdx xpplx xPhxnx xnd xPxd xnd xndrxxd phxnxs xnd txYlxts.  Thx fxnYtxxnxlxty wxll Yx sxmxwhxt lxmxtxd.  Thx sxmx sxYxrxty mxdxls wxll Yx pxt xn plxYx xs thx wxY xYYxss.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Paymxnt Yxntxr</t>
+  </si>
+  <si>
+    <t>TS Pxymxnt xs x sxYsxt xf xYYxSS Nxxt Gxnxrxtxxn fxr Pxymxnt xnxtxxtxxns frxm thx WxY Yhxnnxl.  xnxtxxlly txrgxttxd fxr xntxrnxtxxnxl pxymxnts thrxxgh Wxrxs/Yxxk Trxnsfxr, Yxt sxYsxqxxntly slxtxd fxr xS DxmxstxY pxymxnt xnxtxxtxxns xs wxll.    Thxs xpplxYxtxxn xntxgrxtxs thrxxgh vxrxxxs rxxtxs tx thx YxYk xffxYxs.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Pxnpxxnt</t>
+  </si>
+  <si>
+    <t>Pxnpxxnt SxxrYh xpplxYxtxxn fxr xYYxSS Nxxt Gxnxrxtxxn Pxrtxl</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Pxrtal</t>
+  </si>
+  <si>
+    <t>PMx Pxrtxl prxvxdxs xxthxntxYxtxxn xnd xxthxrxzxtxxn sxrvxYxs fxr 60 dxffxrxnt TSS xpplxYxtxxns.  xt xnYlxdxs rxvxrsx prxxy, sxnglx sxgn-xn,  xntxtlxmxnts rxtrxxvxl frxm Gx xnd Yxntxnt mxnxgxmxnt. JPMx Pxrtxl prxvxdxs thx hxmx pxgx fxr xll sxppxrtxd xpplxYxtxxn lxxnYhxs.JPMx Pxrtxl xlsx sxppxrts xxM (xnlxnx xnqxxry Mxnxgxr) prxdxYt , WSS DxshYxxrd thxt prxvxdxs vxrxxxs snxpshxts tx Ylxxnts xnd Whxtx LxYxl SWxD Yxnk sxtx xf thx Pxrtxl; JPMx Pxrtxl xntxgrxtxs wxth GlxYxl xntxtlxmxnts fxr xsxr Mxnxgxmxnt Fxxtxrxs.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Rxpxrtxng</t>
+  </si>
+  <si>
+    <t>Yxmpxnxnt xf xntxrnxt xYYxss Txrgxt Stxtx fxr xnlxnx rxpxrtxng, xnYlxdxng xYtxxtx</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - Statxmxnt Yxntxr</t>
+  </si>
+  <si>
+    <t>xYYxss Nxxt Gxnxrxtxxn/xYYxss Txrgxt Stxtx Stxtxmxnt Yxntxr.  JPMxrgxnxYYxss hxxsxd xpplxYxtxxn thxt prxvxdxs trxxsxry sxrvxYxs Yxstxmxrs wxth xYYxss tx thxxr stxtxmxnts.</t>
+  </si>
+  <si>
+    <t>JPMxrgan AYYxSS - xS AYH</t>
+  </si>
+  <si>
+    <t>Yxmpxnxnt xf xntxrnxt xYYxss Txrgxt Stxtx Plxtfxrm thxt hxndlxs xnlxnx pxymxnts fxr xS xYH.</t>
+  </si>
+  <si>
+    <t>PrxdxYtxxn AvaxlaYxlxty Txstxng Systxm</t>
+  </si>
+  <si>
+    <t>xxtxmxtxd systxm tx vxlxdxtx prxdxYtxxn xvxxlxYxlxty</t>
   </si>
 </sst>
 </file>
@@ -823,7 +829,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -835,13 +841,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -849,10 +855,10 @@
         <v>80908</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -860,10 +866,10 @@
         <v>25585</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -871,10 +877,10 @@
         <v>16721</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -882,10 +888,10 @@
         <v>23973</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -893,10 +899,10 @@
         <v>18475</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="192" thickBot="1" x14ac:dyDescent="0.25">
@@ -904,10 +910,10 @@
         <v>89596</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -915,10 +921,10 @@
         <v>25124</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -926,10 +932,10 @@
         <v>23954</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -937,10 +943,10 @@
         <v>89359</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -948,10 +954,10 @@
         <v>86882</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -959,10 +965,10 @@
         <v>31922</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -970,10 +976,10 @@
         <v>86659</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -981,10 +987,10 @@
         <v>31592</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -992,10 +998,10 @@
         <v>18401</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1003,10 +1009,10 @@
         <v>28290</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1014,10 +1020,10 @@
         <v>35487</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1025,10 +1031,10 @@
         <v>18404</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1036,10 +1042,10 @@
         <v>89337</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1047,10 +1053,10 @@
         <v>22161</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1058,10 +1064,10 @@
         <v>16584</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -1069,10 +1075,10 @@
         <v>81322</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1080,10 +1086,10 @@
         <v>29118</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -1091,10 +1097,10 @@
         <v>34425</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.25">
@@ -1102,10 +1108,10 @@
         <v>80894</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1113,10 +1119,10 @@
         <v>86401</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1124,10 +1130,10 @@
         <v>23452</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1135,10 +1141,10 @@
         <v>28289</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1146,10 +1152,10 @@
         <v>81259</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1157,10 +1163,10 @@
         <v>28288</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -1168,10 +1174,10 @@
         <v>86739</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1200,13 +1206,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1214,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1225,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1236,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1247,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1258,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1269,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1280,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1291,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1302,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1313,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1324,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1335,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1346,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1357,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1368,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1379,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1390,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1401,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1412,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1423,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1434,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1445,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1456,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1467,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1478,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1489,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1516,13 +1522,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1530,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1541,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1552,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
